--- a/medicine/Sexualité et sexologie/Charles_Virmaître/Charles_Virmaître.xlsx
+++ b/medicine/Sexualité et sexologie/Charles_Virmaître/Charles_Virmaître.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Virma%C3%AEtre</t>
+          <t>Charles_Virmaître</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Virmaître, né le 14 janvier 1835 à Paris 6e et mort le 15 mars 1903 à Paris 10e, est un historien, lexicographe et journaliste français. 
-Il s'intéresse essentiellement à Paris[1], et aux mœurs et à la prostitution de la capitale[2]. Il est également l'auteur du Dictionnaire d'argot fin de siècle, publié en 1894.
+Il s'intéresse essentiellement à Paris, et aux mœurs et à la prostitution de la capitale. Il est également l'auteur du Dictionnaire d'argot fin de siècle, publié en 1894.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Virma%C3%AEtre</t>
+          <t>Charles_Virmaître</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Virmaître est le fils du journaliste Claude Virmaître (1806?-1854)[3], qui a notamment été rédacteur au journal Le Corsaire, où il travailla lui-même également[4].
-Il précise lui-même : « Je fais du document et non de la critique, de l'histoire et non de la théorie[5]. »
-Il fut le secrétaire d'Émile de Girardin[6]. Il eut à Montmartre un cabaret littéraire[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Virmaître est le fils du journaliste Claude Virmaître (1806?-1854), qui a notamment été rédacteur au journal Le Corsaire, où il travailla lui-même également.
+Il précise lui-même : « Je fais du document et non de la critique, de l'histoire et non de la théorie. »
+Il fut le secrétaire d'Émile de Girardin. Il eut à Montmartre un cabaret littéraire.
 En 2014, Sandrine Fillipetti, dans la préface d'une anthologie consacrée à Charles Virmaître, Portraits pittoresques de Paris : anthologie, 1867-1893, publiée aux éditions Omnibus, écrit : 
 « Il fut plus attentif encore que d’autres à « pénétrer dans
-la partie interdite au public », à entrer à la fois dans les coulisses de la grande presse et des feuilles éphémères, des cabarets excentriques et des bouis-bouis, des prisons et des maisons de tolérance, des bals et des tripots obscurs, esquissant d’après nature, renseignant sur un Paris populaire sans doute plus authentique que celui des grands bourgeois[4]. »
-Veuf depuis 3 ans, selon sa nécrologie de 1903 : « il s'était mis à boire[6] », et meurt dans la plus grande solitude[6] à 68 ans, en mars 1903 à l'hôpital Lariboisière, à Paris.
+la partie interdite au public », à entrer à la fois dans les coulisses de la grande presse et des feuilles éphémères, des cabarets excentriques et des bouis-bouis, des prisons et des maisons de tolérance, des bals et des tripots obscurs, esquissant d’après nature, renseignant sur un Paris populaire sans doute plus authentique que celui des grands bourgeois. »
+Veuf depuis 3 ans, selon sa nécrologie de 1903 : « il s'était mis à boire », et meurt dans la plus grande solitude à 68 ans, en mars 1903 à l'hôpital Lariboisière, à Paris.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Virma%C3%AEtre</t>
+          <t>Charles_Virmaître</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,16 +565,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Journalisme
-Il collabore à de nombreux journaux[4] : Le Corsaire en 1851 et 1852, puis il est secrétaire de rédaction à La Liberté[4] fondé par Émile de Girardin.
-Il est éditeur scientifique du journal Le Monde pour rire en 1868, puis de l'hebdomadaire La Charge : journal satirique hebdomadaire[7], journal qui paraît entre 1870 et 1890, dont Alfred Le Petit est directeur de publication. Il participe également aux journaux Le Centre gauche ou au Salut[4].
-Il est gérant et directeur de publication du journal L’Étoile[4],[8], publié entre 1874 et les années 1880, et gérant du journal La Confiance[4], en 1880.
-Paris, et les mœurs de la capitale
-Charles Virmaître a écrit un grand nombre d'ouvrages sur Paris : Les curiosités de Paris (1868), La Commune à Paris (1871), Paris oublié (1886), Paris-escarpe (1887), Paris qui s'efface (1887), Paris-boursicotier (1888), Paris canard, sur la presse parisienne (1888), Paris-Palette, sur l'art et la peinture parisienne (1888), Paris croque-mort sur les cimetières parisiens (1889), Paris-médaillé (1890), ou encore Paris historique (1896).
-De la capitale, il s'intéresse également plus particulièrement à ses mœurs sexuelles, à la prostitution, aux maisons closes, et à leurs diverses réglementations et pénalisations. De nombreux ouvrages portent sur ces thèmes : Les virtuoses du trottoir (1868), Les maisons comiques ; détails intimes et inédits de la vie de célébrités artistiques (1868), Paris-police (1886),  Paris impur (illustrations de Louis Vallet) (1889),  Paris-galant (1890), Paris cocu (1890),  Paris documentaire : Trottoirs et lupanars (1893). Un de ses derniers ouvrages se penche sur une pratique plus extrême : la flagellation, dans son essai Les Flagellants et les flagellés de Paris (1902).
-Les jeux et l'argot
-Charles Virmaître s'est penché sur le jeu et sa législation, dans deux ouvrages parus en 1872 : Les Jeux en France, leur législation, leur moralité, et Les jeux et les joueurs, préfacé par le vicomte Oscar de Poli.
-En 1894 est publié son Dictionnaire d'argot fin de siècle, préfacé par Léo Trézenik, et l'année suivante, son Supplément au Dictionnaire d'argot fin-de-siècle.
+          <t>Journalisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il collabore à de nombreux journaux : Le Corsaire en 1851 et 1852, puis il est secrétaire de rédaction à La Liberté fondé par Émile de Girardin.
+Il est éditeur scientifique du journal Le Monde pour rire en 1868, puis de l'hebdomadaire La Charge : journal satirique hebdomadaire, journal qui paraît entre 1870 et 1890, dont Alfred Le Petit est directeur de publication. Il participe également aux journaux Le Centre gauche ou au Salut.
+Il est gérant et directeur de publication du journal L’Étoile publié entre 1874 et les années 1880, et gérant du journal La Confiance, en 1880.
 </t>
         </is>
       </c>
@@ -571,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charles_Virma%C3%AEtre</t>
+          <t>Charles_Virmaître</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,13 +599,94 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ses travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Paris, et les mœurs de la capitale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Virmaître a écrit un grand nombre d'ouvrages sur Paris : Les curiosités de Paris (1868), La Commune à Paris (1871), Paris oublié (1886), Paris-escarpe (1887), Paris qui s'efface (1887), Paris-boursicotier (1888), Paris canard, sur la presse parisienne (1888), Paris-Palette, sur l'art et la peinture parisienne (1888), Paris croque-mort sur les cimetières parisiens (1889), Paris-médaillé (1890), ou encore Paris historique (1896).
+De la capitale, il s'intéresse également plus particulièrement à ses mœurs sexuelles, à la prostitution, aux maisons closes, et à leurs diverses réglementations et pénalisations. De nombreux ouvrages portent sur ces thèmes : Les virtuoses du trottoir (1868), Les maisons comiques ; détails intimes et inédits de la vie de célébrités artistiques (1868), Paris-police (1886),  Paris impur (illustrations de Louis Vallet) (1889),  Paris-galant (1890), Paris cocu (1890),  Paris documentaire : Trottoirs et lupanars (1893). Un de ses derniers ouvrages se penche sur une pratique plus extrême : la flagellation, dans son essai Les Flagellants et les flagellés de Paris (1902).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles_Virmaître</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Virma%C3%AEtre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ses travaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les jeux et l'argot</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Virmaître s'est penché sur le jeu et sa législation, dans deux ouvrages parus en 1872 : Les Jeux en France, leur législation, leur moralité, et Les jeux et les joueurs, préfacé par le vicomte Oscar de Poli.
+En 1894 est publié son Dictionnaire d'argot fin de siècle, préfacé par Léo Trézenik, et l'année suivante, son Supplément au Dictionnaire d'argot fin-de-siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charles_Virmaître</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Virma%C3%AEtre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publications originelles
-Les curiosités de Paris, préface de M. Xavier Eyma, P. Lebigre-Duquesne, 1868 [Disponible sur Gallica]
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications originelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les curiosités de Paris, préface de M. Xavier Eyma, P. Lebigre-Duquesne, 1868 [Disponible sur Gallica]
 Une tuile, J. Lecerf, 1868
 Les virtuoses du trottoir, P. Lebigre-Duquesne, 1868 [Disponible sur Google Books]
 Les maisons comiques ; détails intimes et inédits de la vie de célébrités artistiques, coécrit avec Élie Frébault, P. Lebigre-Duquesne, 1868 [Disponible sur Gallica]
@@ -619,20 +713,95 @@
 Supplément au Dictionnaire d'argot fin-de-siècle, A. Charles, 1895 [Disponible sur Gallica]
  Paris documentaire : Trottoirs et lupanars, Perrot, 1893 [Disponible sur Gallica]
 Paris historique, A. Charles, 1896 [Disponible sur Gallica]
-Mlles Saturne, préface de Clovis Hugues, A. Charles, sans date [1898]
+Mlles Saturne, préface de Clovis Hugues, A. Charles, sans date 
 Les Flagellants et les flagellés de Paris, C. Carrington, 1902 [Disponible sur Wikisource]
 Préfaces
 Jean-Baptiste Troppmann , Mémoires secrets de Troppmann : autographe et portrait : révélations nouvelles, A. Duquesne, 1870 [Disponible sur Gallica]
 Jehan Sarrazin, Les Contes du divan, éd. Sarrazin, 1891
-Jehan Sarrazin, Souvenirs de Montmartre et du Quartier-Latin, éd. Sarrazin, 1895 [Disponible sur Gallica]
-Années 2010
-Rééditions et anthologies
-Portraits pittoresques de Paris : anthologie, 1867-1893, édition établie, préfacée et annotée par Sandrine Fillipetti, éditions Omnibus, 2014[5] - anthologie à partir de 12 de ses ouvrages sur Paris
+Jehan Sarrazin, Souvenirs de Montmartre et du Quartier-Latin, éd. Sarrazin, 1895 [Disponible sur Gallica]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charles_Virmaître</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Virma%C3%AEtre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Rééditions et anthologies</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Portraits pittoresques de Paris : anthologie, 1867-1893, édition établie, préfacée et annotée par Sandrine Fillipetti, éditions Omnibus, 2014 - anthologie à partir de 12 de ses ouvrages sur Paris
 Paris impur, illustrations de Louis Vallet, éditions Abordables, 2015 - fac-similé de l'édition originale (sa seconde édition, de 1891)
 Dictionnaire d'argot du siècle et de langage populaire, illustrations de Creseveur (1965- ), Denis éditions, 2016
-Paris du vice et du crime, choix et présentation de Laurent Portes, Paris, Nouveau monde éditions, 2018
-Vente aux enchères de ses ouvrages
-En mars 2014, un lot de 19 de ses ouvrages originaux sur Paris est vendu aux enchères Drouot[2], pour 1600€ hors frais.
+Paris du vice et du crime, choix et présentation de Laurent Portes, Paris, Nouveau monde éditions, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charles_Virmaître</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Virma%C3%AEtre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Vente aux enchères de ses ouvrages</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2014, un lot de 19 de ses ouvrages originaux sur Paris est vendu aux enchères Drouot, pour 1600€ hors frais.
 </t>
         </is>
       </c>
